--- a/project/moms.xlsx
+++ b/project/moms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\전상하\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AD5E77E-2222-4C55-AFCD-8309A9F5BE44}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820374F1-7CB7-489D-A038-79C4090DAA7E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{0B2FEC31-19C6-4436-A24A-705AC2C3ADF9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="1" xr2:uid="{0B2FEC31-19C6-4436-A24A-705AC2C3ADF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="116">
   <si>
     <t>메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,77 @@
   </si>
   <si>
     <t>인크레더블버거 (세트)</t>
+  </si>
+  <si>
+    <t>불싸이버거</t>
+  </si>
+  <si>
+    <t>싸이버거</t>
+  </si>
+  <si>
+    <t>화이트갈릭버거</t>
+  </si>
+  <si>
+    <t>휠렛버거</t>
+  </si>
+  <si>
+    <t>햄치즈휠렛버거</t>
+  </si>
+  <si>
+    <t>할리피뇨통살</t>
+  </si>
+  <si>
+    <t>할라피뇨통가슴살</t>
+  </si>
+  <si>
+    <t>불고기버거</t>
+  </si>
+  <si>
+    <t>디럭스불고기버거</t>
+  </si>
+  <si>
+    <t>스파이시불고기버거</t>
+  </si>
+  <si>
+    <t>스파이시디럭스불고기버거</t>
+  </si>
+  <si>
+    <t>통새우버거</t>
+  </si>
+  <si>
+    <t>불갈비치킨버거</t>
+  </si>
+  <si>
+    <t>딥치즈버거</t>
+  </si>
+  <si>
+    <t>치킨커틀렛버거</t>
+  </si>
+  <si>
+    <t>치즈베이컨버거</t>
+  </si>
+  <si>
+    <t>마살라버거</t>
+  </si>
+  <si>
+    <t>인크레더블버거</t>
+  </si>
+  <si>
+    <t>사이즈업(감튀만)</t>
+  </si>
+  <si>
+    <t>오렌지주스변경</t>
+  </si>
+  <si>
+    <t>에이드변경</t>
+  </si>
+  <si>
+    <t>가격(단품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격(세트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -730,13 +801,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53496581-E25C-4397-B7C7-5FD12D328AC0}">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1722,15 +1793,1001 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEAB8F1-056E-4C4A-8456-77694A236245}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>3600</v>
+      </c>
+      <c r="C2">
+        <v>5800</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3">
+        <v>3400</v>
+      </c>
+      <c r="C3">
+        <v>5600</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>4100</v>
+      </c>
+      <c r="C4">
+        <v>6100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>3600</v>
+      </c>
+      <c r="C5">
+        <v>5800</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>3900</v>
+      </c>
+      <c r="C6">
+        <v>6100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>3900</v>
+      </c>
+      <c r="C7">
+        <v>6100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>3900</v>
+      </c>
+      <c r="C8">
+        <v>6100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>3000</v>
+      </c>
+      <c r="C9">
+        <v>5200</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>4000</v>
+      </c>
+      <c r="C10">
+        <v>6200</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>3200</v>
+      </c>
+      <c r="C11">
+        <v>5400</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12">
+        <v>4200</v>
+      </c>
+      <c r="C12">
+        <v>6400</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>2900</v>
+      </c>
+      <c r="C13">
+        <v>5100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>2900</v>
+      </c>
+      <c r="C14">
+        <v>5100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <v>4000</v>
+      </c>
+      <c r="C15">
+        <v>6000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16">
+        <v>3200</v>
+      </c>
+      <c r="C16">
+        <v>5400</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17">
+        <v>4500</v>
+      </c>
+      <c r="C17">
+        <v>6500</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18">
+        <v>3800</v>
+      </c>
+      <c r="C18">
+        <v>6000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19">
+        <v>4900</v>
+      </c>
+      <c r="C19">
+        <v>6900</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>400</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>600</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>1500</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>3000</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>6000</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>3000</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>6900</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>4900</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>3500</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>7000</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>10000</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>11000</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>8000</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>9000</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>4000</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>8000</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>16000</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>4000</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39">
+        <v>8000</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>16000</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>1000</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42">
+        <v>3000</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43">
+        <v>2500</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44">
+        <v>3000</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45">
+        <v>3000</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46">
+        <v>2500</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47">
+        <v>2500</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48">
+        <v>2000</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49">
+        <v>1700</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50">
+        <v>3000</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51">
+        <v>1900</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52">
+        <v>2500</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53">
+        <v>1500</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54">
+        <v>2000</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55">
+        <v>2500</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56">
+        <v>2200</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57">
+        <v>2200</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58">
+        <v>2200</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59">
+        <v>1600</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60">
+        <v>1600</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61">
+        <v>2000</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62">
+        <v>3000</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63">
+        <v>3000</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64">
+        <v>2200</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65">
+        <v>2000</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66">
+        <v>2500</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67">
+        <v>4000</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68">
+        <v>4000</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69">
+        <v>2300</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70">
+        <v>2000</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>